--- a/data/2023_horizontal_MDR_NeCSA.xlsx
+++ b/data/2023_horizontal_MDR_NeCSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Desktop\Islands\MDR NeCSA 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Desktop\MDR NeCSA Data 2017-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152D355-29F2-47BC-A532-A00531FB3870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53A0478-922A-4B8A-9595-650B96DF5E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
   <si>
     <t>Site</t>
   </si>
@@ -1032,8 +1032,8 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM29" sqref="AM29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -4576,6 +4576,9 @@
       <c r="C24" s="4">
         <v>45158</v>
       </c>
+      <c r="D24" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E24">
         <v>6</v>
       </c>
@@ -4725,6 +4728,9 @@
       <c r="C25" s="4">
         <v>45158</v>
       </c>
+      <c r="D25" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E25">
         <v>7</v>
       </c>
@@ -4874,6 +4880,9 @@
       <c r="C26" s="4">
         <v>45158</v>
       </c>
+      <c r="D26" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E26">
         <v>8</v>
       </c>
@@ -5022,6 +5031,9 @@
       </c>
       <c r="C27" s="4">
         <v>45158</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E27">
         <v>9</v>
